--- a/biology/Botanique/Nypa/Nypa.xlsx
+++ b/biology/Botanique/Nypa/Nypa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nypa est un genre de plantes de la famille des Arecaceae (palmiers).
-Il ne comporte qu’une espèce actuelle : Nypa fruticans, et plusieurs espèces fossiles[2].
+Il ne comporte qu’une espèce actuelle : Nypa fruticans, et plusieurs espèces fossiles.
 C'est un genre très ancien. On a ainsi retrouvé des restes de pollen fossilisé de palmier de mangrove qui sont estimés à 70 millions d'années.
 Le genre Nypa est l'unique représentant de la sous-famille des Nypoideae.
 </t>
@@ -514,11 +526,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (28 décembre 2020)[3] et Tropicos                                           (28 décembre 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (28 décembre 2020) et Tropicos                                           (28 décembre 2020) :
 Nypa fruticans Wurmb (1779)
-Selon Paleobiology Database                   (28 décembre 2020)[2] :
+Selon Paleobiology Database                   (28 décembre 2020) :
 Nypa burtini
 Nypa australis
 Nypa fruticans</t>
@@ -549,9 +563,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nypa a pour synonymes[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nypa a pour synonymes :
  Nipa Thunb., Kongl. Vetensk. Acad. Nya Handl. 3: 231 (1782).</t>
         </is>
       </c>
